--- a/po_analysis_by_asin/B09VK3TVK2_po_data.xlsx
+++ b/po_analysis_by_asin/B09VK3TVK2_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,137 +452,321 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>510</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1215</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45348</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45355</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>610</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45362</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45369</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2575</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45544</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>1480</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45551</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>670</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45572</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45579</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45586</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B18" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B41" t="n">
         <v>190</v>
       </c>
     </row>
@@ -597,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,41 +803,129 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>750</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1950</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>3325</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45536</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>2150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45566</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B6" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B17" t="n">
         <v>790</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09VK3TVK2_po_data.xlsx
+++ b/po_analysis_by_asin/B09VK3TVK2_po_data.xlsx
@@ -727,7 +727,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>2575</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +910,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>3325</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="16">

--- a/po_analysis_by_asin/B09VK3TVK2_po_data.xlsx
+++ b/po_analysis_by_asin/B09VK3TVK2_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -797,7 +798,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -927,6 +928,719 @@
       </c>
       <c r="B17" t="n">
         <v>790</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-586.695198591931</v>
+      </c>
+      <c r="D2" t="n">
+        <v>455.9768803723563</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-540.9631063160023</v>
+      </c>
+      <c r="D3" t="n">
+        <v>546.5547262994863</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-488.2956572692235</v>
+      </c>
+      <c r="D4" t="n">
+        <v>568.5673707267588</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>47</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-485.5767096281834</v>
+      </c>
+      <c r="D5" t="n">
+        <v>576.7357747172656</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>71</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-448.6330532146201</v>
+      </c>
+      <c r="D6" t="n">
+        <v>564.5938216762546</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>80</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-442.9017232445206</v>
+      </c>
+      <c r="D7" t="n">
+        <v>662.5236741025965</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>96</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-394.8099705143273</v>
+      </c>
+      <c r="D8" t="n">
+        <v>614.2716996153378</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>104</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-388.6443448174869</v>
+      </c>
+      <c r="D9" t="n">
+        <v>666.8111214967297</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>112</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-378.2108335087352</v>
+      </c>
+      <c r="D10" t="n">
+        <v>609.6904019992932</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>120</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-397.3945066658862</v>
+      </c>
+      <c r="D11" t="n">
+        <v>642.435051592313</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>128</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-413.5154937886398</v>
+      </c>
+      <c r="D12" t="n">
+        <v>631.900290285196</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>137</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-358.6709921381384</v>
+      </c>
+      <c r="D13" t="n">
+        <v>696.9157204645103</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>145</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-384.9267116542648</v>
+      </c>
+      <c r="D14" t="n">
+        <v>683.8181725194975</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>153</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-400.4758040761587</v>
+      </c>
+      <c r="D15" t="n">
+        <v>652.6223604183159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>161</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-376.6746522741856</v>
+      </c>
+      <c r="D16" t="n">
+        <v>665.4114272852627</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>169</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-319.7121294208431</v>
+      </c>
+      <c r="D17" t="n">
+        <v>679.560681437242</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>226</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-302.6171586517008</v>
+      </c>
+      <c r="D18" t="n">
+        <v>752.0191849567319</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>259</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-245.50072533473</v>
+      </c>
+      <c r="D19" t="n">
+        <v>790.5284664960062</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>267</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-233.2938404289193</v>
+      </c>
+      <c r="D20" t="n">
+        <v>794.2424923538256</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>275</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-276.1101207099678</v>
+      </c>
+      <c r="D21" t="n">
+        <v>812.9347856871266</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>283</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-212.3647908292633</v>
+      </c>
+      <c r="D22" t="n">
+        <v>815.4306685594752</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>316</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-218.1144970907055</v>
+      </c>
+      <c r="D23" t="n">
+        <v>810.8831528009782</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>324</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-213.3562911543891</v>
+      </c>
+      <c r="D24" t="n">
+        <v>873.2623622489782</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>348</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-152.9082038806744</v>
+      </c>
+      <c r="D25" t="n">
+        <v>855.794777641715</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>356</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-143.6192491119223</v>
+      </c>
+      <c r="D26" t="n">
+        <v>908.0175001698223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>365</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-168.0051741245328</v>
+      </c>
+      <c r="D27" t="n">
+        <v>888.4032098500347</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>373</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-162.3862263231135</v>
+      </c>
+      <c r="D28" t="n">
+        <v>902.3544897219801</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>381</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-159.5625413403811</v>
+      </c>
+      <c r="D29" t="n">
+        <v>917.6352488397785</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>389</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-108.8092333691167</v>
+      </c>
+      <c r="D30" t="n">
+        <v>901.0601266849558</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>397</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-118.6903855652987</v>
+      </c>
+      <c r="D31" t="n">
+        <v>939.3169352149719</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>405</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-104.7885940764996</v>
+      </c>
+      <c r="D32" t="n">
+        <v>936.1805119594604</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>413</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-72.54419365374233</v>
+      </c>
+      <c r="D33" t="n">
+        <v>958.8187441900966</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>422</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-160.7412824236568</v>
+      </c>
+      <c r="D34" t="n">
+        <v>947.9131859403129</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>430</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-104.5932763318241</v>
+      </c>
+      <c r="D35" t="n">
+        <v>989.0379658346241</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>438</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-121.4513190313096</v>
+      </c>
+      <c r="D36" t="n">
+        <v>954.0624195036984</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>642</v>
+      </c>
+      <c r="C37" t="n">
+        <v>124.7238161300927</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1155.87567947777</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>650</v>
+      </c>
+      <c r="C38" t="n">
+        <v>112.8341034210497</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1193.369463533929</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>674</v>
+      </c>
+      <c r="C39" t="n">
+        <v>139.1086217763086</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1180.6602455049</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>682</v>
+      </c>
+      <c r="C40" t="n">
+        <v>159.1140370025745</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1244.432481760005</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>690</v>
+      </c>
+      <c r="C41" t="n">
+        <v>103.3652645160806</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1221.398334577317</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>699</v>
+      </c>
+      <c r="C42" t="n">
+        <v>122.5572188947559</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1213.970035312552</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>707</v>
+      </c>
+      <c r="C43" t="n">
+        <v>184.383109678738</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1232.767079730363</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>715</v>
+      </c>
+      <c r="C44" t="n">
+        <v>201.7669132960641</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1268.492996910115</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>723</v>
+      </c>
+      <c r="C45" t="n">
+        <v>207.5053044235603</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1230.658943912468</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>731</v>
+      </c>
+      <c r="C46" t="n">
+        <v>192.1586333140868</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1251.621444864233</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>739</v>
+      </c>
+      <c r="C47" t="n">
+        <v>221.9605957428697</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1267.926202419286</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>747</v>
+      </c>
+      <c r="C48" t="n">
+        <v>250.5002618527631</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1272.502650665131</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>756</v>
+      </c>
+      <c r="C49" t="n">
+        <v>192.6518290615449</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1243.160321020464</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09VK3TVK2_po_data.xlsx
+++ b/po_analysis_by_asin/B09VK3TVK2_po_data.xlsx
@@ -941,7 +941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -960,16 +960,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -978,12 +968,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-586.695198591931</v>
-      </c>
-      <c r="D2" t="n">
-        <v>455.9768803723563</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -992,12 +976,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>-540.9631063160023</v>
-      </c>
-      <c r="D3" t="n">
-        <v>546.5547262994863</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1006,12 +984,6 @@
       <c r="B4" t="n">
         <v>14</v>
       </c>
-      <c r="C4" t="n">
-        <v>-488.2956572692235</v>
-      </c>
-      <c r="D4" t="n">
-        <v>568.5673707267588</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1020,12 +992,6 @@
       <c r="B5" t="n">
         <v>47</v>
       </c>
-      <c r="C5" t="n">
-        <v>-485.5767096281834</v>
-      </c>
-      <c r="D5" t="n">
-        <v>576.7357747172656</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1034,12 +1000,6 @@
       <c r="B6" t="n">
         <v>71</v>
       </c>
-      <c r="C6" t="n">
-        <v>-448.6330532146201</v>
-      </c>
-      <c r="D6" t="n">
-        <v>564.5938216762546</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1048,12 +1008,6 @@
       <c r="B7" t="n">
         <v>80</v>
       </c>
-      <c r="C7" t="n">
-        <v>-442.9017232445206</v>
-      </c>
-      <c r="D7" t="n">
-        <v>662.5236741025965</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1062,12 +1016,6 @@
       <c r="B8" t="n">
         <v>96</v>
       </c>
-      <c r="C8" t="n">
-        <v>-394.8099705143273</v>
-      </c>
-      <c r="D8" t="n">
-        <v>614.2716996153378</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1076,12 +1024,6 @@
       <c r="B9" t="n">
         <v>104</v>
       </c>
-      <c r="C9" t="n">
-        <v>-388.6443448174869</v>
-      </c>
-      <c r="D9" t="n">
-        <v>666.8111214967297</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1090,12 +1032,6 @@
       <c r="B10" t="n">
         <v>112</v>
       </c>
-      <c r="C10" t="n">
-        <v>-378.2108335087352</v>
-      </c>
-      <c r="D10" t="n">
-        <v>609.6904019992932</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1104,12 +1040,6 @@
       <c r="B11" t="n">
         <v>120</v>
       </c>
-      <c r="C11" t="n">
-        <v>-397.3945066658862</v>
-      </c>
-      <c r="D11" t="n">
-        <v>642.435051592313</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1118,12 +1048,6 @@
       <c r="B12" t="n">
         <v>128</v>
       </c>
-      <c r="C12" t="n">
-        <v>-413.5154937886398</v>
-      </c>
-      <c r="D12" t="n">
-        <v>631.900290285196</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1132,12 +1056,6 @@
       <c r="B13" t="n">
         <v>137</v>
       </c>
-      <c r="C13" t="n">
-        <v>-358.6709921381384</v>
-      </c>
-      <c r="D13" t="n">
-        <v>696.9157204645103</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1146,12 +1064,6 @@
       <c r="B14" t="n">
         <v>145</v>
       </c>
-      <c r="C14" t="n">
-        <v>-384.9267116542648</v>
-      </c>
-      <c r="D14" t="n">
-        <v>683.8181725194975</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1160,12 +1072,6 @@
       <c r="B15" t="n">
         <v>153</v>
       </c>
-      <c r="C15" t="n">
-        <v>-400.4758040761587</v>
-      </c>
-      <c r="D15" t="n">
-        <v>652.6223604183159</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1174,12 +1080,6 @@
       <c r="B16" t="n">
         <v>161</v>
       </c>
-      <c r="C16" t="n">
-        <v>-376.6746522741856</v>
-      </c>
-      <c r="D16" t="n">
-        <v>665.4114272852627</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1188,12 +1088,6 @@
       <c r="B17" t="n">
         <v>169</v>
       </c>
-      <c r="C17" t="n">
-        <v>-319.7121294208431</v>
-      </c>
-      <c r="D17" t="n">
-        <v>679.560681437242</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1202,12 +1096,6 @@
       <c r="B18" t="n">
         <v>226</v>
       </c>
-      <c r="C18" t="n">
-        <v>-302.6171586517008</v>
-      </c>
-      <c r="D18" t="n">
-        <v>752.0191849567319</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1216,12 +1104,6 @@
       <c r="B19" t="n">
         <v>259</v>
       </c>
-      <c r="C19" t="n">
-        <v>-245.50072533473</v>
-      </c>
-      <c r="D19" t="n">
-        <v>790.5284664960062</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1230,12 +1112,6 @@
       <c r="B20" t="n">
         <v>267</v>
       </c>
-      <c r="C20" t="n">
-        <v>-233.2938404289193</v>
-      </c>
-      <c r="D20" t="n">
-        <v>794.2424923538256</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1244,12 +1120,6 @@
       <c r="B21" t="n">
         <v>275</v>
       </c>
-      <c r="C21" t="n">
-        <v>-276.1101207099678</v>
-      </c>
-      <c r="D21" t="n">
-        <v>812.9347856871266</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1258,12 +1128,6 @@
       <c r="B22" t="n">
         <v>283</v>
       </c>
-      <c r="C22" t="n">
-        <v>-212.3647908292633</v>
-      </c>
-      <c r="D22" t="n">
-        <v>815.4306685594752</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1272,12 +1136,6 @@
       <c r="B23" t="n">
         <v>316</v>
       </c>
-      <c r="C23" t="n">
-        <v>-218.1144970907055</v>
-      </c>
-      <c r="D23" t="n">
-        <v>810.8831528009782</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1286,12 +1144,6 @@
       <c r="B24" t="n">
         <v>324</v>
       </c>
-      <c r="C24" t="n">
-        <v>-213.3562911543891</v>
-      </c>
-      <c r="D24" t="n">
-        <v>873.2623622489782</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1300,12 +1152,6 @@
       <c r="B25" t="n">
         <v>348</v>
       </c>
-      <c r="C25" t="n">
-        <v>-152.9082038806744</v>
-      </c>
-      <c r="D25" t="n">
-        <v>855.794777641715</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1314,12 +1160,6 @@
       <c r="B26" t="n">
         <v>356</v>
       </c>
-      <c r="C26" t="n">
-        <v>-143.6192491119223</v>
-      </c>
-      <c r="D26" t="n">
-        <v>908.0175001698223</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1328,12 +1168,6 @@
       <c r="B27" t="n">
         <v>365</v>
       </c>
-      <c r="C27" t="n">
-        <v>-168.0051741245328</v>
-      </c>
-      <c r="D27" t="n">
-        <v>888.4032098500347</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1342,12 +1176,6 @@
       <c r="B28" t="n">
         <v>373</v>
       </c>
-      <c r="C28" t="n">
-        <v>-162.3862263231135</v>
-      </c>
-      <c r="D28" t="n">
-        <v>902.3544897219801</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1356,12 +1184,6 @@
       <c r="B29" t="n">
         <v>381</v>
       </c>
-      <c r="C29" t="n">
-        <v>-159.5625413403811</v>
-      </c>
-      <c r="D29" t="n">
-        <v>917.6352488397785</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1370,12 +1192,6 @@
       <c r="B30" t="n">
         <v>389</v>
       </c>
-      <c r="C30" t="n">
-        <v>-108.8092333691167</v>
-      </c>
-      <c r="D30" t="n">
-        <v>901.0601266849558</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1384,12 +1200,6 @@
       <c r="B31" t="n">
         <v>397</v>
       </c>
-      <c r="C31" t="n">
-        <v>-118.6903855652987</v>
-      </c>
-      <c r="D31" t="n">
-        <v>939.3169352149719</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1398,12 +1208,6 @@
       <c r="B32" t="n">
         <v>405</v>
       </c>
-      <c r="C32" t="n">
-        <v>-104.7885940764996</v>
-      </c>
-      <c r="D32" t="n">
-        <v>936.1805119594604</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1412,12 +1216,6 @@
       <c r="B33" t="n">
         <v>413</v>
       </c>
-      <c r="C33" t="n">
-        <v>-72.54419365374233</v>
-      </c>
-      <c r="D33" t="n">
-        <v>958.8187441900966</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1426,12 +1224,6 @@
       <c r="B34" t="n">
         <v>422</v>
       </c>
-      <c r="C34" t="n">
-        <v>-160.7412824236568</v>
-      </c>
-      <c r="D34" t="n">
-        <v>947.9131859403129</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1440,12 +1232,6 @@
       <c r="B35" t="n">
         <v>430</v>
       </c>
-      <c r="C35" t="n">
-        <v>-104.5932763318241</v>
-      </c>
-      <c r="D35" t="n">
-        <v>989.0379658346241</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1454,12 +1240,6 @@
       <c r="B36" t="n">
         <v>438</v>
       </c>
-      <c r="C36" t="n">
-        <v>-121.4513190313096</v>
-      </c>
-      <c r="D36" t="n">
-        <v>954.0624195036984</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1468,12 +1248,6 @@
       <c r="B37" t="n">
         <v>642</v>
       </c>
-      <c r="C37" t="n">
-        <v>124.7238161300927</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1155.87567947777</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1482,12 +1256,6 @@
       <c r="B38" t="n">
         <v>650</v>
       </c>
-      <c r="C38" t="n">
-        <v>112.8341034210497</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1193.369463533929</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1496,12 +1264,6 @@
       <c r="B39" t="n">
         <v>674</v>
       </c>
-      <c r="C39" t="n">
-        <v>139.1086217763086</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1180.6602455049</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1510,12 +1272,6 @@
       <c r="B40" t="n">
         <v>682</v>
       </c>
-      <c r="C40" t="n">
-        <v>159.1140370025745</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1244.432481760005</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1524,12 +1280,6 @@
       <c r="B41" t="n">
         <v>690</v>
       </c>
-      <c r="C41" t="n">
-        <v>103.3652645160806</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1221.398334577317</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1538,12 +1288,6 @@
       <c r="B42" t="n">
         <v>699</v>
       </c>
-      <c r="C42" t="n">
-        <v>122.5572188947559</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1213.970035312552</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1552,12 +1296,6 @@
       <c r="B43" t="n">
         <v>707</v>
       </c>
-      <c r="C43" t="n">
-        <v>184.383109678738</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1232.767079730363</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1566,12 +1304,6 @@
       <c r="B44" t="n">
         <v>715</v>
       </c>
-      <c r="C44" t="n">
-        <v>201.7669132960641</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1268.492996910115</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1580,12 +1312,6 @@
       <c r="B45" t="n">
         <v>723</v>
       </c>
-      <c r="C45" t="n">
-        <v>207.5053044235603</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1230.658943912468</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1594,12 +1320,6 @@
       <c r="B46" t="n">
         <v>731</v>
       </c>
-      <c r="C46" t="n">
-        <v>192.1586333140868</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1251.621444864233</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1608,12 +1328,6 @@
       <c r="B47" t="n">
         <v>739</v>
       </c>
-      <c r="C47" t="n">
-        <v>221.9605957428697</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1267.926202419286</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1622,12 +1336,6 @@
       <c r="B48" t="n">
         <v>747</v>
       </c>
-      <c r="C48" t="n">
-        <v>250.5002618527631</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1272.502650665131</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1635,12 +1343,6 @@
       </c>
       <c r="B49" t="n">
         <v>756</v>
-      </c>
-      <c r="C49" t="n">
-        <v>192.6518290615449</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1243.160321020464</v>
       </c>
     </row>
   </sheetData>
